--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/98.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/98.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1763341718293984</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.489736800213668</v>
+        <v>-2.494007464792258</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1184145365858513</v>
+        <v>0.1156503760788291</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2697347126518755</v>
+        <v>-0.2728398188171999</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1717464058719657</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.59765982428153</v>
+        <v>-2.602175067051496</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06201456168628164</v>
+        <v>0.05921624562136155</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2901542469887238</v>
+        <v>-0.293138588860052</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1783813505953531</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.721485920074921</v>
+        <v>-2.724055515886061</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06798568511164513</v>
+        <v>0.06476835354179912</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3014188719675837</v>
+        <v>-0.3047886837066167</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1915266780007621</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.881476652475411</v>
+        <v>-2.884300585208755</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02974792812427913</v>
+        <v>0.02625918185328024</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3092636717119172</v>
+        <v>-0.3125206481257518</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1986278362358586</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.962554627876884</v>
+        <v>-2.965666443169653</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07869528227466427</v>
+        <v>0.07577132255033409</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3005521746859247</v>
+        <v>-0.3033364625752795</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1882288090484775</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.852321224285501</v>
+        <v>-2.856184461852023</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1383278367609986</v>
+        <v>0.1340675408339135</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3035877498940998</v>
+        <v>-0.3065440354142976</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1569987972571714</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.666889480616495</v>
+        <v>-2.670680747543162</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1764350707235406</v>
+        <v>0.1726316053833397</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3391851602718234</v>
+        <v>-0.342996554580822</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1070044888869234</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.460395956138027</v>
+        <v>-2.463949963921437</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1994937318286776</v>
+        <v>0.1953200446376907</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3482168656531087</v>
+        <v>-0.3514000416650567</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.03996508328725851</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.049718066863257</v>
+        <v>-2.052692650003757</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2400382088155048</v>
+        <v>0.235113709271441</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.309075206222802</v>
+        <v>-0.3113489905057188</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.04397487983204284</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.68127901421532</v>
+        <v>-1.685374021639007</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2265479832871913</v>
+        <v>0.2224188203056069</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2717053663584485</v>
+        <v>-0.2729374061254796</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.14080751095141</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.251658818482786</v>
+        <v>-1.258300854652572</v>
       </c>
       <c r="F12" t="n">
-        <v>0.154854247418164</v>
+        <v>0.1499193792225955</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2247256163112526</v>
+        <v>-0.2254733790609457</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2412599172375844</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.7486517470825717</v>
+        <v>-0.7560391063193441</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08048295977821283</v>
+        <v>0.07583109477665539</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1881078086413294</v>
+        <v>-0.1885469515285881</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3352673479245778</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.3403732857501286</v>
+        <v>-0.3494318276411908</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.07598548071405721</v>
+        <v>-0.08121494059649505</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1364127618421943</v>
+        <v>-0.1375325762047037</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.424116208176695</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1048230642251976</v>
+        <v>0.09442696629002693</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.294479804428221</v>
+        <v>-0.2980136848292992</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.06704404359293067</v>
+        <v>-0.06861275957352668</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5148232648455874</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5741649539516259</v>
+        <v>0.5646135961537513</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4114607604664683</v>
+        <v>-0.4139894915922657</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.0009341315195319269</v>
+        <v>-0.001844743089916777</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6142707037074737</v>
       </c>
       <c r="E17" t="n">
-        <v>0.971495949057118</v>
+        <v>0.9617725936284005</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5767181579106778</v>
+        <v>-0.5770792309513126</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04486115257341926</v>
+        <v>0.0442664799135899</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7217607003137753</v>
       </c>
       <c r="E18" t="n">
-        <v>1.406072970129584</v>
+        <v>1.394642446726648</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7941475601232395</v>
+        <v>-0.7939511656653266</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1085082049541093</v>
+        <v>0.1077067691848624</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8328448239092214</v>
       </c>
       <c r="E19" t="n">
-        <v>1.735439894304363</v>
+        <v>1.724504626490947</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.975988090847552</v>
+        <v>-0.9738680065751757</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2152223662406565</v>
+        <v>0.2144874118251751</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.9397722283168929</v>
       </c>
       <c r="E20" t="n">
-        <v>2.047099601391793</v>
+        <v>2.037833686470636</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.143798006323952</v>
+        <v>-1.14078621802217</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3105096636483289</v>
+        <v>0.3088842250447953</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.036138651852521</v>
       </c>
       <c r="E21" t="n">
-        <v>2.271473560429808</v>
+        <v>2.263127405889187</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.401631603767689</v>
+        <v>-1.396816280024763</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3779577416865129</v>
+        <v>0.3760889447329568</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.115576025409797</v>
       </c>
       <c r="E22" t="n">
-        <v>2.527987899449738</v>
+        <v>2.519369720287288</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.67380687600448</v>
+        <v>-1.668588394694223</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4927161467786902</v>
+        <v>0.4909626248330395</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.17509636923378</v>
       </c>
       <c r="E23" t="n">
-        <v>2.709947974626694</v>
+        <v>2.701712825649241</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.952762026484002</v>
+        <v>-1.948249833317419</v>
       </c>
       <c r="G23" t="n">
-        <v>0.621921133020322</v>
+        <v>0.6196711356437985</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.212586981084525</v>
       </c>
       <c r="E24" t="n">
-        <v>2.830330458279165</v>
+        <v>2.82272962680553</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.23806096192238</v>
+        <v>-2.23146284004132</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7274355803357059</v>
+        <v>0.7250367623140558</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.228312391410834</v>
       </c>
       <c r="E25" t="n">
-        <v>2.951929123761071</v>
+        <v>2.945204138379248</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.484367668496255</v>
+        <v>-2.478212958947191</v>
       </c>
       <c r="G25" t="n">
-        <v>0.830015089354578</v>
+        <v>0.8268087363569134</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.22328146603762</v>
       </c>
       <c r="E26" t="n">
-        <v>3.009967955519063</v>
+        <v>3.003484498725232</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.706130557117112</v>
+        <v>-2.700564421021109</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9311124911289523</v>
+        <v>0.9276548508124676</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.199282204830458</v>
       </c>
       <c r="E27" t="n">
-        <v>3.003939499550086</v>
+        <v>2.997731726902144</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.91281376692605</v>
+        <v>-2.908101519777494</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9824141390915849</v>
+        <v>0.9798695500281921</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.157690532468329</v>
       </c>
       <c r="E28" t="n">
-        <v>3.006789048951852</v>
+        <v>3.001136304119751</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.130780204294488</v>
+        <v>-3.126755337748627</v>
       </c>
       <c r="G28" t="n">
-        <v>1.026979213179535</v>
+        <v>1.024727386040982</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.100685234607059</v>
       </c>
       <c r="E29" t="n">
-        <v>2.999926221497083</v>
+        <v>2.9953091219741</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.284817805929579</v>
+        <v>-3.281126565993899</v>
       </c>
       <c r="G29" t="n">
-        <v>1.104993557021703</v>
+        <v>1.103015584267009</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.031133961939481</v>
       </c>
       <c r="E30" t="n">
-        <v>2.906781575426827</v>
+        <v>2.901244715523308</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.342324786857446</v>
+        <v>-3.339140391004145</v>
       </c>
       <c r="G30" t="n">
-        <v>1.097084715606311</v>
+        <v>1.09570446511483</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9528614308411625</v>
       </c>
       <c r="E31" t="n">
-        <v>2.844920980708332</v>
+        <v>2.840313639916177</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.416521027263171</v>
+        <v>-3.414202413810513</v>
       </c>
       <c r="G31" t="n">
-        <v>1.137005853661501</v>
+        <v>1.136990605644582</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8696462730358594</v>
       </c>
       <c r="E32" t="n">
-        <v>2.769227385041191</v>
+        <v>2.76542026017693</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.451368235208494</v>
+        <v>-3.450784541120846</v>
       </c>
       <c r="G32" t="n">
-        <v>1.095361079773821</v>
+        <v>1.094766407113991</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7850033187611961</v>
       </c>
       <c r="E33" t="n">
-        <v>2.590729219625458</v>
+        <v>2.587796721011653</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.419854548721937</v>
+        <v>-3.419715486807639</v>
       </c>
       <c r="G33" t="n">
-        <v>1.063792805386695</v>
+        <v>1.063626297041942</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7016806187772126</v>
       </c>
       <c r="E34" t="n">
-        <v>2.532163416402756</v>
+        <v>2.530960652828208</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.242312433967006</v>
+        <v>-3.243571920164491</v>
       </c>
       <c r="G34" t="n">
-        <v>1.010605282691557</v>
+        <v>1.011207884320184</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6220119726458521</v>
       </c>
       <c r="E35" t="n">
-        <v>2.407687145167952</v>
+        <v>2.40722604513633</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.078930847564135</v>
+        <v>-3.079845118658581</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9782855860306774</v>
+        <v>0.9786393400231912</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.5472719836998386</v>
       </c>
       <c r="E36" t="n">
-        <v>2.287830413138837</v>
+        <v>2.287157060711707</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.003503177312057</v>
+        <v>-3.003309527497189</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8910583903662306</v>
+        <v>0.891440200709875</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.4781305303675791</v>
       </c>
       <c r="E37" t="n">
-        <v>2.154293160330264</v>
+        <v>2.153721054735474</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.815927257503944</v>
+        <v>-2.815595460655793</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7829853258118887</v>
+        <v>0.783539133786376</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.4145287588143752</v>
       </c>
       <c r="E38" t="n">
-        <v>2.024950941936364</v>
+        <v>2.024655740328817</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.650473465601821</v>
+        <v>-2.649270092106597</v>
       </c>
       <c r="G38" t="n">
-        <v>0.716335633939568</v>
+        <v>0.7174170232994422</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.3565399879443973</v>
       </c>
       <c r="E39" t="n">
-        <v>1.868936282427594</v>
+        <v>1.868477012158003</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.449574133570485</v>
+        <v>-2.448577523184679</v>
       </c>
       <c r="G39" t="n">
-        <v>0.649117495996518</v>
+        <v>0.6498280535849295</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.3032785603271585</v>
       </c>
       <c r="E40" t="n">
-        <v>1.774929818441093</v>
+        <v>1.774302819985396</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.313009844443212</v>
+        <v>-2.310345101006499</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5670752360051065</v>
+        <v>0.5673057860209172</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.2546129311955609</v>
       </c>
       <c r="E41" t="n">
-        <v>1.668544404399313</v>
+        <v>1.668593807974129</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.228817614066263</v>
+        <v>-2.226216302379933</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4922428483335338</v>
+        <v>0.4924825471594957</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2091776717258403</v>
       </c>
       <c r="E42" t="n">
-        <v>1.472794022721084</v>
+        <v>1.47178948336648</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.149505968944653</v>
+        <v>-2.147384054910246</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4627806300432188</v>
+        <v>0.4627781903605118</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.1662511119549252</v>
       </c>
       <c r="E43" t="n">
-        <v>1.33877310281585</v>
+        <v>1.336642039971292</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.049192925160577</v>
+        <v>-2.046398878540394</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4352262436297718</v>
+        <v>0.4347352574849896</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1237025305478834</v>
       </c>
       <c r="E44" t="n">
-        <v>1.167328060106031</v>
+        <v>1.165556240540078</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.993997543597584</v>
+        <v>-1.990875359653311</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4130946619532918</v>
+        <v>0.4125213365171486</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.08093156652127374</v>
       </c>
       <c r="E45" t="n">
-        <v>1.092544466088598</v>
+        <v>1.09003830202784</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.94675491773871</v>
+        <v>-1.943508919897057</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3760334419513728</v>
+        <v>0.3742921184192571</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.03659578343806583</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9709964240228613</v>
+        <v>0.968348758365098</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.922436770436088</v>
+        <v>-1.919278601171887</v>
       </c>
       <c r="G46" t="n">
-        <v>0.333088927101542</v>
+        <v>0.3311371809359482</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.008642188031050612</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8405075547566748</v>
+        <v>0.8369986811033433</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.9089642326074</v>
+        <v>-1.905853637155985</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2982770945554699</v>
+        <v>0.2963857305368741</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.05505465093551911</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7521172403616695</v>
+        <v>0.7493463707272031</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.962305455313079</v>
+        <v>-1.959715732119606</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2752123342435653</v>
+        <v>0.273821105179903</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.1015559906644394</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7272336965917022</v>
+        <v>0.7248281694426079</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.916588850987428</v>
+        <v>-1.91360816864016</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2611426840723411</v>
+        <v>0.2598527018410189</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1477836302973542</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6719474368478745</v>
+        <v>0.6712277304493118</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.911463077620037</v>
+        <v>-1.909322865965328</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2144996102387101</v>
+        <v>0.2125496938351466</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1920453832079642</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6004025216239739</v>
+        <v>0.5996267025231503</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.96853396526403</v>
+        <v>-1.967139686596983</v>
       </c>
       <c r="G51" t="n">
-        <v>0.188775595776184</v>
+        <v>0.1877405603877426</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2336773553150048</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4899031926175282</v>
+        <v>0.4887400738869697</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.922900310150417</v>
+        <v>-1.921571292995783</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1308794854565514</v>
+        <v>0.1293876194812256</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2715383824790711</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4527425555452992</v>
+        <v>0.451014650268072</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.931890540925683</v>
+        <v>-1.931194621433513</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1375318902778424</v>
+        <v>0.1358966929434809</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.3058282016341549</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3423548420226985</v>
+        <v>0.3401853541755057</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.882513802618867</v>
+        <v>-1.882147240292142</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1014044588320247</v>
+        <v>0.100147412317247</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.3361036950341231</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3175920625467273</v>
+        <v>0.3167064577240892</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.896837179791619</v>
+        <v>-1.896702387322057</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1162383396112142</v>
+        <v>0.1152252613671357</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3626768487594586</v>
       </c>
       <c r="E56" t="n">
-        <v>0.282521623633714</v>
+        <v>0.2813566751411252</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.847944108581464</v>
+        <v>-1.848728466571762</v>
       </c>
       <c r="G56" t="n">
-        <v>0.08316478099387405</v>
+        <v>0.08232126069793148</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3853325706834113</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2733227999869998</v>
+        <v>0.2725274634245203</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.849001711034945</v>
+        <v>-1.850733275836233</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05860083565852275</v>
+        <v>0.05768595464340067</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4048295612248214</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2129058875103674</v>
+        <v>0.2118745116459865</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.84471701828079</v>
+        <v>-1.847325649015242</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03049264127058851</v>
+        <v>0.02963509279908074</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4208906658466159</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1851343693359981</v>
+        <v>0.1835430862903624</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.880293691355504</v>
+        <v>-1.883767799530261</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01041893195745642</v>
+        <v>0.009295458070886501</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4337302412044581</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1774316811093469</v>
+        <v>0.1763911564348147</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.815288955548373</v>
+        <v>-1.819088761364513</v>
       </c>
       <c r="G60" t="n">
-        <v>0.002300277829263024</v>
+        <v>0.001119471399078784</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4428656727920175</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1448680161777681</v>
+        <v>0.1435353394990736</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.841493587504177</v>
+        <v>-1.844472440089414</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.01746603146278804</v>
+        <v>-0.01875784345614042</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4489228231939989</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1662146299432734</v>
+        <v>0.1644672072043902</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.790431028446829</v>
+        <v>-1.793331201264766</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.04307599075876224</v>
+        <v>-0.04387193724191846</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4523022558189287</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1165006055022159</v>
+        <v>0.1149062728531965</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.831889166607425</v>
+        <v>-1.834071462788829</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.06737218091702113</v>
+        <v>-0.06920316278861879</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4532709063661459</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1173075305575536</v>
+        <v>0.1161261142066926</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.796461314177837</v>
+        <v>-1.799081533405147</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.04545773100146341</v>
+        <v>-0.04654216996472146</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4519716954799251</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1125098945142533</v>
+        <v>0.1116120912780802</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.813943470535467</v>
+        <v>-1.815332869837099</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.08475431028366404</v>
+        <v>-0.08611260363078196</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4483749244701806</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1099646955301837</v>
+        <v>0.1084984462232814</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.830793749071985</v>
+        <v>-1.832046526142026</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.07669847798517568</v>
+        <v>-0.07815862808531053</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4427884556783389</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1165725761420722</v>
+        <v>0.1150367958780206</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.790600586394965</v>
+        <v>-1.791547183285278</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.09458745143419622</v>
+        <v>-0.09627815155014184</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4354615783373334</v>
       </c>
       <c r="E68" t="n">
-        <v>0.02766321925115427</v>
+        <v>0.02411592059518756</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.822232292532473</v>
+        <v>-1.823183158867523</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.1331698136039249</v>
+        <v>-0.1354466474902254</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4265891672843712</v>
       </c>
       <c r="E69" t="n">
-        <v>0.003016324703765244</v>
+        <v>-0.0002607790924020709</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.842080941115885</v>
+        <v>-1.842639628455786</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.1347976918901654</v>
+        <v>-0.1371172202238383</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4164381390601529</v>
       </c>
       <c r="E70" t="n">
-        <v>0.07336884500462348</v>
+        <v>0.07025946939456189</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.785081414191072</v>
+        <v>-1.786178051567865</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.12928644865507</v>
+        <v>-0.1315992678612986</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4051759195490953</v>
       </c>
       <c r="E71" t="n">
-        <v>0.08264390873593121</v>
+        <v>0.07959430535219091</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.766124469637066</v>
+        <v>-1.767300396701836</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1722407222357287</v>
+        <v>-0.1743626362701352</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3929392817021139</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1362028731232084</v>
+        <v>0.1328769756729012</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.718304248897311</v>
+        <v>-1.719607649383522</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1682634295026546</v>
+        <v>-0.1705921066464787</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3793637601556774</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1691385896676035</v>
+        <v>0.1661371700173263</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.678207453687217</v>
+        <v>-1.67908268985835</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1474572054567481</v>
+        <v>-0.1496657282272529</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3636974190542014</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2649772553670561</v>
+        <v>0.2620221896882118</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.60057370034734</v>
+        <v>-1.600987836486852</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.1742162553077157</v>
+        <v>-0.1763662256932526</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3444231324721703</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3640405716844757</v>
+        <v>0.3611690651383458</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.542815432100653</v>
+        <v>-1.543161257124369</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.1554935202935805</v>
+        <v>-0.157305594624199</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.320939322746256</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4665243231570984</v>
+        <v>0.4643670337234405</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.538943045723979</v>
+        <v>-1.539092476289782</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.1693460387038824</v>
+        <v>-0.17120141740255</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2925780925151286</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5924772123503096</v>
+        <v>0.5902272149737861</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.46211072815335</v>
+        <v>-1.46193812060183</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1915715481645817</v>
+        <v>-0.1937141995019976</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.259638911250738</v>
       </c>
       <c r="E78" t="n">
-        <v>0.7670017445570291</v>
+        <v>0.7656928547847278</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.417096752447313</v>
+        <v>-1.417280948491691</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.1895947952512412</v>
+        <v>-0.1922424609090045</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.222478974788021</v>
       </c>
       <c r="E79" t="n">
-        <v>0.971648429226305</v>
+        <v>0.9698589219607262</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.359495233814549</v>
+        <v>-1.36002037551723</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1702615296396813</v>
+        <v>-0.1729464004587262</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1825833510739199</v>
       </c>
       <c r="E80" t="n">
-        <v>1.144065075574183</v>
+        <v>1.143566160460603</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.332838650637276</v>
+        <v>-1.333963954285876</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1773744245719171</v>
+        <v>-0.1796707759198736</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1406918289884339</v>
       </c>
       <c r="E81" t="n">
-        <v>1.316622003677714</v>
+        <v>1.316205427855495</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.281580916963369</v>
+        <v>-1.282822105540551</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1141927416675858</v>
+        <v>-0.1158395274948056</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.09845883821556664</v>
       </c>
       <c r="E82" t="n">
-        <v>1.54944702361275</v>
+        <v>1.548208274718274</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.300081030930491</v>
+        <v>-1.301926040977654</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.08160589975029056</v>
+        <v>-0.08336613082338545</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.05675951597376605</v>
       </c>
       <c r="E83" t="n">
-        <v>1.742940698787011</v>
+        <v>1.743751283366409</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.216155335889281</v>
+        <v>-1.218312015402262</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.06667565150417484</v>
+        <v>-0.06814860993852141</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.01762704436045796</v>
       </c>
       <c r="E84" t="n">
-        <v>1.95808228854109</v>
+        <v>1.958301250064043</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.129995501409144</v>
+        <v>-1.131750243196148</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.08547035715816625</v>
+        <v>-0.08667068105000643</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.01745536948805537</v>
       </c>
       <c r="E85" t="n">
-        <v>2.067392882148554</v>
+        <v>2.068194927838478</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.051809159936133</v>
+        <v>-1.054614795049174</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.05593250870393456</v>
+        <v>-0.0567668801897259</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.04676611936929927</v>
       </c>
       <c r="E86" t="n">
-        <v>2.174936535555478</v>
+        <v>2.176275921361617</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9862701336161708</v>
+        <v>-0.9898692755296611</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.0611009765186976</v>
+        <v>-0.06157854440859133</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.06964258169654276</v>
       </c>
       <c r="E87" t="n">
-        <v>2.303051593547762</v>
+        <v>2.304197024578694</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8484817336906635</v>
+        <v>-0.850424331046106</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05959569228848339</v>
+        <v>-0.06024159828515958</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.08552585374266594</v>
       </c>
       <c r="E88" t="n">
-        <v>2.388329482729322</v>
+        <v>2.389542005034697</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7723831506941617</v>
+        <v>-0.7739110019894156</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.04476059166794038</v>
+        <v>-0.04569255046201141</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.09427266763180646</v>
       </c>
       <c r="E89" t="n">
-        <v>2.420231993647306</v>
+        <v>2.421198107999274</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7196085442971826</v>
+        <v>-0.7203483780780779</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.03978790839041346</v>
+        <v>-0.04096139577247673</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.09618352665834717</v>
       </c>
       <c r="E90" t="n">
-        <v>2.433248920730462</v>
+        <v>2.431603354744596</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.637738281936614</v>
+        <v>-0.6378749041682056</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.04745766090052029</v>
+        <v>-0.04866591376115819</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.09157537876475322</v>
       </c>
       <c r="E91" t="n">
-        <v>2.376111551732705</v>
+        <v>2.374394015106982</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.4952498332760862</v>
+        <v>-0.4950015955606498</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.0373274883804118</v>
+        <v>-0.03894377817379415</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.08132778347378622</v>
       </c>
       <c r="E92" t="n">
-        <v>2.316233199213641</v>
+        <v>2.315484216622594</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4174629898463459</v>
+        <v>-0.4168097648015487</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.03215658088294176</v>
+        <v>-0.03389546473235047</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.06674287249705158</v>
       </c>
       <c r="E93" t="n">
-        <v>2.227227474855797</v>
+        <v>2.224191289726945</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3301290580634682</v>
+        <v>-0.3296801564453817</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03046710060834964</v>
+        <v>-0.03233467772055219</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.04900745218069495</v>
       </c>
       <c r="E94" t="n">
-        <v>2.117833932036295</v>
+        <v>2.1156199199797</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2464735578820581</v>
+        <v>-0.2462033630222587</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.08252444028947313</v>
+        <v>-0.08383393998245121</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.02978395352588641</v>
       </c>
       <c r="E95" t="n">
-        <v>1.970081258014755</v>
+        <v>1.967084107809215</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1718119479999748</v>
+        <v>-0.1717521757736535</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0898215312660869</v>
+        <v>-0.09097550118649422</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.01088352560361735</v>
       </c>
       <c r="E96" t="n">
-        <v>1.803846767646395</v>
+        <v>1.800166506282897</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.06443175333441874</v>
+        <v>-0.06375535130390515</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.08042875284416681</v>
+        <v>-0.08139181759275199</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.006125944255454755</v>
       </c>
       <c r="E97" t="n">
-        <v>1.672586958644799</v>
+        <v>1.668669438138046</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005324264544579895</v>
+        <v>0.00573108163597085</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.08350092329294677</v>
+        <v>-0.08494643529683968</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.0206274731715547</v>
       </c>
       <c r="E98" t="n">
-        <v>1.500696063920278</v>
+        <v>1.498063036358756</v>
       </c>
       <c r="F98" t="n">
-        <v>0.04438480452487902</v>
+        <v>0.04537531570391787</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1061954617540653</v>
+        <v>-0.1074457991413988</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.03210605228875844</v>
       </c>
       <c r="E99" t="n">
-        <v>1.412428953501975</v>
+        <v>1.410136871598756</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08904929568313931</v>
+        <v>0.08946587150535823</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09757301314687797</v>
+        <v>-0.09914904817559494</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.04225273072321184</v>
       </c>
       <c r="E100" t="n">
-        <v>1.273659801128257</v>
+        <v>1.271414683117148</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1294638595658191</v>
+        <v>0.1299005627703707</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1287430093320875</v>
+        <v>-0.1306923158149743</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.05173349726397657</v>
       </c>
       <c r="E101" t="n">
-        <v>1.196304171616978</v>
+        <v>1.194242029808892</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1562588947367148</v>
+        <v>0.1573189368729029</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1738301755193342</v>
+        <v>-0.1750963708442631</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.06344279731198056</v>
       </c>
       <c r="E102" t="n">
-        <v>1.113212238140883</v>
+        <v>1.11294448296379</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1745894507557009</v>
+        <v>0.1757806258373899</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.177004202721131</v>
+        <v>-0.178667456406623</v>
       </c>
     </row>
   </sheetData>
